--- a/chapter4/4-4/data.xlsx
+++ b/chapter4/4-4/data.xlsx
@@ -55,6 +55,85 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Pie Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sample'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sample'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,7 +452,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>470</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
@@ -383,7 +462,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -393,7 +472,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +482,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +492,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>590</v>
+        <v>950</v>
       </c>
     </row>
     <row r="10">
@@ -429,5 +508,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/chapter4/4-4/data.xlsx
+++ b/chapter4/4-4/data.xlsx
@@ -69,18 +69,24 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Pie Chart</a:t>
+              <a:t>Bar Chart</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
     </title>
     <plotArea>
-      <pieChart>
-        <varyColors val="1"/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sample'!B1</f>
+            </strRef>
+          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
@@ -97,8 +103,62 @@
             </numRef>
           </val>
         </ser>
-        <firstSliceAng val="0"/>
-      </pieChart>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>支店</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>売上</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
     </plotArea>
     <legend>
       <legendPos val="r"/>
@@ -452,7 +512,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>320</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +522,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>30</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +532,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>820</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +542,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +552,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>950</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
